--- a/docs/樹種コード.xlsx
+++ b/docs/樹種コード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOC\Dropbox\GitHub\fgb_twin_test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1F8D4-DA64-47D3-A5E8-E90D16F8E313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31DB63B-F6C2-4747-804A-451C959D99A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3480" windowWidth="16200" windowHeight="11385" xr2:uid="{09C7964C-E9B7-4B33-BEF1-452273EFF12C}"/>
+    <workbookView xWindow="17535" yWindow="5265" windowWidth="39405" windowHeight="22575" xr2:uid="{09C7964C-E9B7-4B33-BEF1-452273EFF12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <r>
       <t>d2</t>
@@ -6082,8 +6082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733413F5-D33C-42BE-A990-8E7CA55DEA0C}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H94" sqref="H1:H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6316,6 +6316,9 @@
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H29" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
